--- a/biology/Botanique/Schlumbergera/Schlumbergera.xlsx
+++ b/biology/Botanique/Schlumbergera/Schlumbergera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schlumbergera est un genre de plantes à fleurs de la famille des Cactaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes succulentes.
 Ce genre est composé de six espèces, toutes à fleurs roses :
@@ -553,7 +567,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes épiphytes ou lithophytes.
 </t>
@@ -584,7 +600,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces dont originaires de la zone néotropicale du Brésil.
 </t>
@@ -615,7 +633,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le botaniste Charles Lemaire (1801-1871) a donné le nom de Schlumbergera à ce genre, en 1858, en hommage à Frédéric Schlumberger (1823-1893), collectionneur français de cactées et autres plantes grasses. Auparavant, les plantes de ce genre ont pu être classées parmi le genre Epiphyllum.
 </t>
@@ -646,7 +666,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les noms de genre suivants sont considérés comme des synonymes de Schlumbergera et ne sont donc pas valides :
 Epiphyllanthus A.Berger
@@ -681,12 +703,49 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les Schlumbergera sont sensibles à la durée de la nuit. Les boutons floraux commencent à se former et à se développer dès que les nuits rallongent suffisamment, c’est-à-dire au début de l'automne.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Schlumbergera sont sensibles à la durée de la nuit. Les boutons floraux commencent à se former et à se développer dès que les nuits rallongent suffisamment, c’est-à-dire au début de l'automne.
 On peut évidemment reproduire ce phénomène artificiellement en mettant les plantes dans l'obscurité pendant un certain nombre d'heures, même s'il fait encore jour ; on obtient ainsi des floraisons décalées, et il n'est pas rare de pouvoir acheter ainsi dans les jardineries des Schlumbergera qui fleurissent précisément au moment où on a décidé de les mettre en vente, à n'importe quelle période de l'année.
-Soins à donner aux cultivars
-Lorsqu'ils sont cultivés comme plantes d'intérieur, les cultivars  Schlumbergera  sont relativement faciles à entretenir. McMillan et Horobin décrivent en détail leur culture dans des conditions commerciales et domestiques. Leurs recommandations sont spécifiques[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schlumbergera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schlumbergera</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Soins à donner aux cultivars</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lorsqu'ils sont cultivés comme plantes d'intérieur, les cultivars  Schlumbergera  sont relativement faciles à entretenir. McMillan et Horobin décrivent en détail leur culture dans des conditions commerciales et domestiques. Leurs recommandations sont spécifiques :
 substrat : un substrat de culture riche et légèrement acide est utilisé pour la production commerciale, comme un mélange de tourbe et d'un matériau inerte (des graviers, du sable ou du polystyrène). Il est recommandé de cultiver les plantes dans des pots relativement petits. Les pots mi-hauteur conviennent ;
 arrosage : ils sont plus tolérants à la sécheresse que beaucoup de plantes d'intérieur, mais ils peuvent être endommagés à la fois par un arrosage insuffisant ou excessif. Garder le substrat de croissance juste humide tout au long de l'année, éviter les extrêmes ;
 lumière : ils peuvent être endommagés s'ils sont exposés à trop de lumière solaire. Les membres du groupe Buckleyi, tels que le vieux cactus de Noël avec des fleurs pendantes, sont plus tolérants aux niveaux de lumière élevés que les membres du groupe Truncata, comme la plupart des cultivars modernes. Trop de lumière provoque une coloration rougeâtre des tiges ; cependant, de très faibles niveaux de lumière empêcheront la floraison. La durée du jour est importante pour contrôler la floraison ; une obscurité continue pendant au moins 12 heures est nécessaire pour induire la formation de bourgeons. Il a été montré qu'une période d'environ 8 jours avec 16 heures d'obscurité à 16 °C provoquait la formation de boutons floraux. Les températures plus basses ralentissent ce processus. Le conseil parfois donné de diminuer l'eau pour produire des boutons floraux s'est révélé inexact ;
